--- a/biology/Zoologie/Arthromygalidae/Arthromygalidae.xlsx
+++ b/biology/Zoologie/Arthromygalidae/Arthromygalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Arthromygalidae sont une famille fossile d'araignées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Arthromygalidae sont une famille fossile d'araignées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont été découvertes en République tchèque, en Pologne, en France et en Angleterre. Elles datent du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont été découvertes en République tchèque, en Pologne, en France et en Angleterre. Elles datent du Carbonifère.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspect général de ces araignées rappelle les mygales.
 </t>
@@ -573,7 +589,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est placée à la base des Araneae après avoir été longtemps considérée comme des araignées mesotheles.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 18.0[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 18.0 :
 † Arthromygale Petrunkevitch, 1923
 † Eolycosa Kusta, 1885
 † Geralycosa Kusta, 1888
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Petrunkevitch, 1923 : On families of spiders. Annals of the New York Academy of Sciences, vol. 29, p. 145-180 (en).</t>
         </is>
